--- a/biology/Botanique/Florissimo/Florissimo.xlsx
+++ b/biology/Botanique/Florissimo/Florissimo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Florissimo est une exposition florale tenue tous les cinq ans dans la ville de Dijon. Créée en 1980, elle propose au Parc des expositions et des congrès de Dijon des expositions de plantes, de fleurs, de fruits et d'oiseaux exotiques provenant de villes françaises et non-francophones, de jardins botaniques, d'écoles agricoles et de sociétés privées. En quelques journées de festivité, ces Floralies internationales rassemblent plusieurs centaines de milliers de spectateurs.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1978, une petite exposition d’orchidées se tient lors de la « Foire des Loisirs de Dijon », et connait un succès auprès des visiteurs. Ainsi est née l'idée de créer une exposition exotique au Parc des expositions et des congrès de Dijon.
 Le 8 mars 1980 la 1re édition de FLORISSIMO est inaugurée et organisée par l’Association du Parc des expositions et des congrès de Dijon avec l’aide de la Ville de Dijon. Elle voit plus de 100 000 visiteurs qui découvrirent ce spectacle floral[source secondaire souhaitée].
@@ -545,9 +559,11 @@
           <t>Florissimo en Chiffres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'exposition représente[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'exposition représente:
 15 000 m2 d'exposition
 des milliers de fleurs et de plantes
 3 ans de préparatifs
@@ -581,7 +597,9 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Initialement, l'exposition a lieu tous les trois ans. Elle est décalée à deux reprises d'un an en 1990 et 2000 pour éviter le chevauchement avec une autre exposition florale : Floralies Internationales de Nantes[réf. souhaitée].
 Depuis 2000, l'exposition florale se tient tous les 5 ans pour être en alternance avec les grandes expositions florales européennes[source secondaire souhaitée]. 
@@ -622,7 +640,9 @@
           <t>Florissimo 2010</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -653,7 +673,9 @@
           <t>Florissimo 2015</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
